--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.3201391041419623</v>
+        <v>3.3201390937713571</v>
       </c>
       <c r="C2">
-        <v>9.3079700946935695</v>
+        <v>9.3079700886019197</v>
       </c>
       <c r="D2">
-        <v>0.88295118395336336</v>
+        <v>0.88295117017217783</v>
       </c>
       <c r="E2">
-        <v>11.609593446079696</v>
+        <v>11.609593431241736</v>
       </c>
       <c r="F2">
-        <v>-6.515902714615029</v>
+        <v>-6.5159027222624584</v>
       </c>
       <c r="G2">
-        <v>8.5116330904678623</v>
+        <v>8.5116330819909027</v>
       </c>
       <c r="H2">
-        <v>8.2159573052120791</v>
+        <v>8.2159572976964235</v>
       </c>
       <c r="I2">
-        <v>6.0120152533228168</v>
+        <v>6.0120152455563982</v>
       </c>
       <c r="J2">
-        <v>9.0490481156978024</v>
+        <v>9.0490481093404682</v>
       </c>
       <c r="K2">
-        <v>14.121406839776677</v>
+        <v>14.121406833125668</v>
       </c>
       <c r="L2">
-        <v>9.6773516380603155</v>
+        <v>9.6773516294148436</v>
       </c>
       <c r="M2">
-        <v>7.1818724746436917</v>
+        <v>7.1818724600021202</v>
       </c>
       <c r="N2">
-        <v>12.008567439082562</v>
+        <v>12.008567422883404</v>
       </c>
       <c r="O2">
-        <v>3.3673504195572925</v>
+        <v>3.367350409088663</v>
       </c>
       <c r="P2">
-        <v>7.442554194278503</v>
+        <v>7.4425541758052143</v>
       </c>
       <c r="Q2">
-        <v>11.85413557356172</v>
+        <v>11.854135562546011</v>
       </c>
       <c r="R2">
-        <v>6.9552584543556932</v>
+        <v>6.9552584432432427</v>
       </c>
       <c r="S2">
-        <v>6.3838198633667309</v>
+        <v>6.3838198680750651</v>
       </c>
       <c r="T2">
-        <v>12.422671776772546</v>
+        <v>12.422671759150843</v>
       </c>
       <c r="U2">
-        <v>13.378962589943475</v>
+        <v>13.378962581237042</v>
       </c>
       <c r="V2">
-        <v>10.408954897230599</v>
+        <v>10.408954890518295</v>
       </c>
       <c r="W2">
-        <v>1.4670138877719729</v>
+        <v>1.4670138788168621</v>
       </c>
       <c r="X2">
-        <v>12.688765874560628</v>
+        <v>12.688765857378865</v>
       </c>
       <c r="Y2">
-        <v>13.402020224584717</v>
+        <v>13.402020210607976</v>
       </c>
       <c r="Z2">
-        <v>10.576055051141516</v>
+        <v>10.576055042056536</v>
       </c>
       <c r="AA2">
-        <v>8.4806639804793846</v>
+        <v>8.4806639700415527</v>
       </c>
       <c r="AB2">
-        <v>9.9903733365314427</v>
+        <v>9.9903733237630412</v>
       </c>
       <c r="AC2">
-        <v>7.6265047775982948</v>
+        <v>7.6265047694982044</v>
       </c>
       <c r="AD2">
-        <v>9.9445449332599534</v>
+        <v>9.9445449199878304</v>
       </c>
       <c r="AE2">
-        <v>15.579698112798166</v>
+        <v>15.579698106686365</v>
       </c>
       <c r="AF2">
-        <v>10.894796611713945</v>
+        <v>10.894796599684536</v>
       </c>
       <c r="AG2">
-        <v>8.193058904014249</v>
+        <v>8.1930588944236646</v>
       </c>
       <c r="AH2">
-        <v>7.2443982978635244</v>
+        <v>7.2443982842735997</v>
       </c>
       <c r="AI2">
-        <v>0.43197060692807787</v>
+        <v>0.43197059535039251</v>
       </c>
       <c r="AJ2">
-        <v>6.9540291482904335</v>
+        <v>6.9540291403783039</v>
       </c>
       <c r="AK2">
-        <v>8.7967032349402494</v>
+        <v>8.796703226719087</v>
       </c>
       <c r="AL2">
-        <v>13.463467162454304</v>
+        <v>13.463467152791479</v>
       </c>
       <c r="AM2">
-        <v>9.3414201155499033</v>
+        <v>9.3414201021149434</v>
       </c>
       <c r="AN2">
-        <v>10.152530331967322</v>
+        <v>10.152530319946848</v>
       </c>
       <c r="AO2">
-        <v>14.35484232978733</v>
+        <v>14.354842311085633</v>
       </c>
       <c r="AP2">
-        <v>8.290751764070075</v>
+        <v>8.2907517558746875</v>
       </c>
       <c r="AQ2">
-        <v>8.9316170228432341</v>
+        <v>8.931617009408086</v>
       </c>
       <c r="AR2">
-        <v>9.9424554319170042</v>
+        <v>9.9424554270445871</v>
       </c>
       <c r="AS2">
-        <v>10.997809456799954</v>
+        <v>10.997809448516849</v>
       </c>
       <c r="AT2">
-        <v>13.103590043788692</v>
+        <v>13.103590029420307</v>
       </c>
       <c r="AU2">
-        <v>8.4655693030239334</v>
+        <v>8.4655692940787119</v>
       </c>
       <c r="AV2">
-        <v>5.4259333730575197</v>
+        <v>5.4259333616926186</v>
       </c>
       <c r="AW2">
-        <v>10.653089226276808</v>
+        <v>10.653089214832868</v>
       </c>
       <c r="AX2">
-        <v>14.980619055711605</v>
+        <v>14.980619041740251</v>
       </c>
       <c r="AY2">
-        <v>12.055342590177839</v>
+        <v>12.05534258061472</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.8985898129637802</v>
+        <v>4.8985898048375365</v>
       </c>
       <c r="C3">
-        <v>8.2514241436302367</v>
+        <v>8.2514241355382634</v>
       </c>
       <c r="D3">
-        <v>13.809518539172499</v>
+        <v>13.809518526395332</v>
       </c>
       <c r="E3">
-        <v>16.927350547300552</v>
+        <v>16.927350507633417</v>
       </c>
       <c r="F3">
-        <v>1.3324988426121602</v>
+        <v>1.3324988354251019</v>
       </c>
       <c r="G3">
-        <v>10.268527918007553</v>
+        <v>10.268527912984721</v>
       </c>
       <c r="H3">
-        <v>8.6441765334477889</v>
+        <v>8.6441765176334933</v>
       </c>
       <c r="I3">
-        <v>8.2856206898379856</v>
+        <v>8.2856206825756509</v>
       </c>
       <c r="J3">
-        <v>10.391022939307877</v>
+        <v>10.391022928236717</v>
       </c>
       <c r="K3">
-        <v>-0.12400819220949007</v>
+        <v>-0.1240081986848327</v>
       </c>
       <c r="L3">
-        <v>11.411110256026278</v>
+        <v>11.411110248652522</v>
       </c>
       <c r="M3">
-        <v>8.5484372600657004</v>
+        <v>8.5485243779309332</v>
       </c>
       <c r="N3">
-        <v>9.6025702265018271</v>
+        <v>9.6025702152206787</v>
       </c>
       <c r="O3">
-        <v>4.6464066173238727</v>
+        <v>4.6464066055564892</v>
       </c>
       <c r="P3">
-        <v>26.172354553176191</v>
+        <v>26.172354539454794</v>
       </c>
       <c r="Q3">
-        <v>6.9035261116109528</v>
+        <v>6.9035261000829129</v>
       </c>
       <c r="R3">
-        <v>5.2343613476046169</v>
+        <v>5.2343613276839651</v>
       </c>
       <c r="S3">
-        <v>4.9030876173402458</v>
+        <v>4.9030876100627427</v>
       </c>
       <c r="T3">
-        <v>6.4391259147225268</v>
+        <v>6.4391259072295313</v>
       </c>
       <c r="U3">
-        <v>12.456187893957781</v>
+        <v>12.456187884574005</v>
       </c>
       <c r="V3">
-        <v>12.674578478511062</v>
+        <v>12.674578470174721</v>
       </c>
       <c r="W3">
-        <v>6.6700975121684953</v>
+        <v>6.6700974975368377</v>
       </c>
       <c r="X3">
-        <v>4.2833562264375606</v>
+        <v>4.2833562156751714</v>
       </c>
       <c r="Y3">
-        <v>5.7173709282747689</v>
+        <v>5.7173709187486859</v>
       </c>
       <c r="Z3">
-        <v>10.698238858909567</v>
+        <v>10.698238846937375</v>
       </c>
       <c r="AA3">
-        <v>9.3200512277844876</v>
+        <v>9.3200512152275223</v>
       </c>
       <c r="AB3">
-        <v>8.2655836573018107</v>
+        <v>8.2655836518298358</v>
       </c>
       <c r="AC3">
-        <v>13.579774311225581</v>
+        <v>13.579774303491307</v>
       </c>
       <c r="AD3">
-        <v>16.643489349148684</v>
+        <v>16.643489338351401</v>
       </c>
       <c r="AE3">
-        <v>12.818275628995476</v>
+        <v>12.818275619278484</v>
       </c>
       <c r="AF3">
-        <v>11.781045899828236</v>
+        <v>11.781045890124794</v>
       </c>
       <c r="AG3">
-        <v>7.6560957669527268</v>
+        <v>7.6560957604858331</v>
       </c>
       <c r="AH3">
-        <v>8.8874023830150257</v>
+        <v>8.887402372563832</v>
       </c>
       <c r="AI3">
-        <v>10.270128209101529</v>
+        <v>10.270128205965602</v>
       </c>
       <c r="AJ3">
-        <v>13.172507387211507</v>
+        <v>13.172507381037862</v>
       </c>
       <c r="AK3">
-        <v>10.237189912562087</v>
+        <v>10.237189904761461</v>
       </c>
       <c r="AL3">
-        <v>11.745050711056065</v>
+        <v>11.7450506977725</v>
       </c>
       <c r="AM3">
-        <v>7.4459973769817198</v>
+        <v>7.4459973670821942</v>
       </c>
       <c r="AN3">
-        <v>5.0178441618205971</v>
+        <v>5.0178441497687656</v>
       </c>
       <c r="AO3">
-        <v>4.9374997993894585</v>
+        <v>4.9374997876127571</v>
       </c>
       <c r="AP3">
-        <v>11.126893417219026</v>
+        <v>11.126893408762296</v>
       </c>
       <c r="AQ3">
-        <v>10.156518160507417</v>
+        <v>10.156518144297511</v>
       </c>
       <c r="AR3">
-        <v>12.153372217095374</v>
+        <v>12.15337221019616</v>
       </c>
       <c r="AS3">
-        <v>8.2596189489827747</v>
+        <v>8.2596189379147571</v>
       </c>
       <c r="AT3">
-        <v>9.4829381361796781</v>
+        <v>9.4829381233478447</v>
       </c>
       <c r="AU3">
-        <v>11.447032977203211</v>
+        <v>11.447032970621922</v>
       </c>
       <c r="AV3">
-        <v>9.2957797853371851</v>
+        <v>9.2957797752022433</v>
       </c>
       <c r="AW3">
-        <v>11.692800923979526</v>
+        <v>11.69280091463918</v>
       </c>
       <c r="AX3">
-        <v>27.669013747871642</v>
+        <v>27.669013736241638</v>
       </c>
       <c r="AY3">
-        <v>19.123550201516608</v>
+        <v>19.12355018789512</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,310 +401,304 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>3.3201390937713571</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>9.3079700886019197</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>0.88295117017217783</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>11.609593431241736</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>-6.5159027222624584</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>8.5116330819909027</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>8.2159572976964235</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>6.0120152455563982</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>9.0490481093404682</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>14.121406833125668</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>9.6773516294148436</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>7.1818724600021202</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.008567422883404</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>3.367350409088663</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>7.4425541758052143</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.854135562546011</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>6.9552584432432427</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>6.3838198680750651</v>
+        <v>6.3838083746542349</v>
       </c>
       <c r="T2">
-        <v>12.422671759150843</v>
+        <v>12.42265885260573</v>
       </c>
       <c r="U2">
-        <v>13.378962581237042</v>
+        <v>13.37894637727236</v>
       </c>
       <c r="V2">
-        <v>10.408954890518295</v>
+        <v>10.40894230897861</v>
       </c>
       <c r="W2">
-        <v>1.4670138788168621</v>
+        <v>1.4670009910613557</v>
       </c>
       <c r="X2">
-        <v>12.688765857378865</v>
+        <v>12.688781339448921</v>
       </c>
       <c r="Y2">
-        <v>13.402020210607976</v>
+        <v>13.402037501844886</v>
       </c>
       <c r="Z2">
-        <v>10.576055042056536</v>
+        <v>10.576069808734502</v>
       </c>
       <c r="AA2">
-        <v>8.4806639700415527</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>9.9903733237630412</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>7.6265047694982044</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>9.9445449199878304</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>15.579698106686365</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>10.894796599684536</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>8.1930588944236646</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>7.2443982842735997</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>0.43197059535039251</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>6.9540291403783039</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>8.796703226719087</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>13.463467152791479</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>9.3414201021149434</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>10.152530319946848</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>14.354842311085633</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>8.2907517558746875</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>8.931617009408086</v>
+        <v>0</v>
       </c>
       <c r="AR2">
-        <v>9.9424554270445871</v>
+        <v>9.942443329608265</v>
       </c>
       <c r="AS2">
-        <v>10.997809448516849</v>
+        <v>10.997796772357251</v>
       </c>
       <c r="AT2">
         <v>13.103590029420307</v>
       </c>
       <c r="AU2">
-        <v>8.4655692940787119</v>
+        <v>8.4655570229296337</v>
       </c>
       <c r="AV2">
         <v>5.4259333616926186</v>
       </c>
       <c r="AW2">
-        <v>10.653089214832868</v>
+        <v>10.653103969533669</v>
       </c>
       <c r="AX2">
-        <v>14.980619041740251</v>
+        <v>14.980637448382497</v>
       </c>
       <c r="AY2">
         <v>12.05534258061472</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>4.8985898048375365</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>8.2514241355382634</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>13.809518526395332</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>16.927350507633417</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.3324988354251019</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>10.268527912984721</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>8.6441765176334933</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>8.2856206825756509</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>10.391022928236717</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>-0.1240081986848327</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>11.411110248652522</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>8.5485243779309332</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>9.6025702152206787</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>4.6464066055564892</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>26.172354539454794</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>6.9035261000829129</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>5.2343613276839651</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>4.9030876100627427</v>
       </c>
       <c r="T3">
-        <v>6.4391259072295313</v>
+        <v>6.4391133463873196</v>
       </c>
       <c r="U3">
-        <v>12.456187884574005</v>
+        <v>12.456171806975766</v>
       </c>
       <c r="V3">
-        <v>12.674578470174721</v>
+        <v>12.674564643014607</v>
       </c>
       <c r="W3">
-        <v>6.6700974975368377</v>
+        <v>6.6700844931978729</v>
       </c>
       <c r="X3">
-        <v>4.2833562156751714</v>
+        <v>4.2833426916846884</v>
       </c>
       <c r="Y3">
-        <v>5.7173709187486859</v>
+        <v>5.7173857438597864</v>
       </c>
       <c r="Z3">
-        <v>10.698238846937375</v>
+        <v>10.698253584196237</v>
       </c>
       <c r="AA3">
-        <v>9.3200512152275223</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>8.2655836518298358</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>13.579774303491307</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>16.643489338351401</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.818275619278484</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>11.781045890124794</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>7.6560957604858331</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>8.887402372563832</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>10.270128205965602</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>13.172507381037862</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>10.237189904761461</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>11.7450506977725</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>7.4459973670821942</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>5.0178441497687656</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>4.9374997876127571</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>11.126893408762296</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.156518144297511</v>
+        <v>0</v>
       </c>
       <c r="AR3">
-        <v>12.15337221019616</v>
+        <v>12.153359920016534</v>
       </c>
       <c r="AS3">
         <v>8.2596189379147571</v>
       </c>
       <c r="AT3">
-        <v>9.4829381233478447</v>
+        <v>9.4829229400370245</v>
       </c>
       <c r="AU3">
-        <v>11.447032970621922</v>
+        <v>11.447019276149424</v>
       </c>
       <c r="AV3">
-        <v>9.2957797752022433</v>
+        <v>9.2957934460288545</v>
       </c>
       <c r="AW3">
-        <v>11.69280091463918</v>
+        <v>11.692785727750273</v>
       </c>
       <c r="AX3">
-        <v>27.669013736241638</v>
+        <v>27.669033526873012</v>
       </c>
       <c r="AY3">
         <v>19.12355018789512</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.3201278766901168</v>
+        <v>3.3673641978477207</v>
       </c>
       <c r="C2">
-        <v>9.9527354366496255</v>
+        <v>6.9552452518524666</v>
       </c>
       <c r="D2">
-        <v>0.88295118395336336</v>
+        <v>10.152546027031246</v>
       </c>
       <c r="E2">
-        <v>15.420772330250825</v>
+        <v>8.931617009408086</v>
       </c>
       <c r="F2">
         <v>-6.5159149580230142</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.8985898129637802</v>
+        <v>4.6464066055564892</v>
       </c>
       <c r="C3">
-        <v>10.883207639840041</v>
+        <v>5.2343485057408117</v>
       </c>
       <c r="D3">
-        <v>13.809502000043663</v>
+        <v>5.0178586006840877</v>
       </c>
       <c r="E3">
-        <v>16.927332371152044</v>
+        <v>10.127918245401867</v>
       </c>
       <c r="F3">
         <v>1.3325124283239584</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>3.3201278766901168</v>
+        <v>-2.2480288825360719</v>
       </c>
       <c r="C2">
-        <v>9.9527354366496255</v>
+        <v>3.3673641978477207</v>
       </c>
       <c r="D2">
-        <v>0.88295118395336336</v>
+        <v>5.4829189350170298</v>
       </c>
       <c r="E2">
-        <v>15.420772330250825</v>
+        <v>10.152546027031246</v>
       </c>
       <c r="F2">
         <v>-6.5159149580230142</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4.8985898129637802</v>
+        <v>-7.2455310004589952</v>
       </c>
       <c r="C3">
-        <v>10.883207639840041</v>
+        <v>4.6464066055564892</v>
       </c>
       <c r="D3">
-        <v>13.809502000043663</v>
+        <v>12.721568865247699</v>
       </c>
       <c r="E3">
-        <v>16.927332371152044</v>
+        <v>5.0178586006840877</v>
       </c>
       <c r="F3">
         <v>1.3325124283239584</v>

--- a/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_strain_msc_GM_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>3.3201278663195133</v>
+      </c>
+      <c r="C2">
+        <v>9.9527354305220435</v>
+      </c>
+      <c r="D2">
+        <v>0.88295117017217783</v>
+      </c>
+      <c r="E2">
+        <v>15.420772314906186</v>
+      </c>
+      <c r="F2">
+        <v>-6.5159149656704409</v>
+      </c>
+      <c r="G2">
+        <v>8.5116189249775545</v>
+      </c>
+      <c r="H2">
+        <v>8.215970880207685</v>
+      </c>
+      <c r="I2">
+        <v>6.0120041451083868</v>
+      </c>
+      <c r="J2">
+        <v>9.0490613170404863</v>
+      </c>
+      <c r="K2">
+        <v>14.121421076665161</v>
+      </c>
+      <c r="L2">
+        <v>9.6773385846235396</v>
+      </c>
+      <c r="M2">
+        <v>7.1818840159624742</v>
+      </c>
+      <c r="N2">
         <v>-2.2480288825360719</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>3.3673641978477207</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>7.4425541758052143</v>
+      </c>
+      <c r="Q2">
+        <v>24.81780339173261</v>
+      </c>
+      <c r="R2">
+        <v>6.9552452518524666</v>
+      </c>
+      <c r="S2">
+        <v>6.3838083746542349</v>
+      </c>
+      <c r="T2">
+        <v>12.42265885260573</v>
+      </c>
+      <c r="U2">
+        <v>13.37894637727236</v>
+      </c>
+      <c r="V2">
+        <v>10.40894230897861</v>
+      </c>
+      <c r="W2">
+        <v>1.4670009910613557</v>
+      </c>
+      <c r="X2">
+        <v>12.688781339448921</v>
+      </c>
+      <c r="Y2">
+        <v>13.402037501844886</v>
+      </c>
+      <c r="Z2">
+        <v>10.576069808734502</v>
+      </c>
+      <c r="AA2">
+        <v>8.4806761246194409</v>
+      </c>
+      <c r="AB2">
+        <v>-0.76110115982448823</v>
+      </c>
+      <c r="AC2">
+        <v>7.6265196060671627</v>
+      </c>
+      <c r="AD2">
+        <v>6.6879002511013645</v>
+      </c>
+      <c r="AE2">
+        <v>15.579698106686365</v>
+      </c>
+      <c r="AF2">
+        <v>10.894782313454124</v>
+      </c>
+      <c r="AG2">
+        <v>8.1930588944236646</v>
+      </c>
+      <c r="AH2">
+        <v>7.2443870068647138</v>
+      </c>
+      <c r="AI2">
+        <v>0.43195855710687564</v>
+      </c>
+      <c r="AJ2">
+        <v>6.9540420724320127</v>
+      </c>
+      <c r="AK2">
+        <v>8.7967159601698466</v>
+      </c>
+      <c r="AL2">
+        <v>13.463467152791479</v>
+      </c>
+      <c r="AM2">
         <v>5.4829189350170298</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>10.152546027031246</v>
       </c>
-      <c r="F2">
-        <v>-6.5159149580230142</v>
-      </c>
-      <c r="G2">
-        <v>8.511618933454514</v>
-      </c>
-      <c r="H2">
-        <v>8.2159708877233406</v>
-      </c>
-      <c r="I2">
-        <v>6.0120041528748036</v>
-      </c>
-      <c r="J2">
-        <v>9.0490613233978223</v>
-      </c>
-      <c r="K2">
-        <v>14.121421083316166</v>
-      </c>
-      <c r="L2">
-        <v>9.6773385932690115</v>
-      </c>
-      <c r="M2">
-        <v>7.1818840306040483</v>
-      </c>
-      <c r="N2">
-        <v>-2.2480288683987633</v>
-      </c>
-      <c r="O2">
-        <v>3.3673642083163515</v>
-      </c>
-      <c r="P2">
-        <v>7.442554194278503</v>
-      </c>
-      <c r="Q2">
-        <v>24.817803404025014</v>
-      </c>
-      <c r="R2">
-        <v>6.9552452629649171</v>
-      </c>
-      <c r="S2">
-        <v>6.3838083699459007</v>
-      </c>
-      <c r="T2">
-        <v>12.422658870227432</v>
-      </c>
-      <c r="U2">
-        <v>13.378946385978793</v>
-      </c>
-      <c r="V2">
-        <v>10.408942315690913</v>
-      </c>
-      <c r="W2">
-        <v>1.4670010000164653</v>
-      </c>
-      <c r="X2">
-        <v>12.68878135663069</v>
-      </c>
-      <c r="Y2">
-        <v>13.402037515821627</v>
-      </c>
-      <c r="Z2">
-        <v>10.576069817819485</v>
-      </c>
-      <c r="AA2">
-        <v>8.4806761350572746</v>
-      </c>
-      <c r="AB2">
-        <v>-0.76110114830418818</v>
-      </c>
-      <c r="AC2">
-        <v>7.626519614167254</v>
-      </c>
-      <c r="AD2">
-        <v>6.6879002639803566</v>
-      </c>
-      <c r="AE2">
-        <v>15.579698112798166</v>
-      </c>
-      <c r="AF2">
-        <v>10.894782325483531</v>
-      </c>
-      <c r="AG2">
-        <v>8.193058904014249</v>
-      </c>
-      <c r="AH2">
-        <v>7.2443870204546377</v>
-      </c>
-      <c r="AI2">
-        <v>0.43195856868455962</v>
-      </c>
-      <c r="AJ2">
-        <v>6.9540420803441432</v>
-      </c>
-      <c r="AK2">
-        <v>8.7967159683910108</v>
-      </c>
-      <c r="AL2">
-        <v>13.463467162454304</v>
-      </c>
-      <c r="AM2">
-        <v>5.4829189479778897</v>
-      </c>
-      <c r="AN2">
-        <v>10.152546039051719</v>
-      </c>
       <c r="AO2">
-        <v>14.35484232978733</v>
+        <v>14.354842311085633</v>
       </c>
       <c r="AP2">
-        <v>8.4179253501981499</v>
+        <v>8.4179253398839808</v>
       </c>
       <c r="AQ2">
-        <v>8.9316170228432341</v>
+        <v>8.931617009408086</v>
       </c>
       <c r="AR2">
-        <v>9.9424433344806822</v>
+        <v>9.942443329608265</v>
       </c>
       <c r="AS2">
-        <v>10.997796780640353</v>
+        <v>10.997796772357251</v>
       </c>
       <c r="AT2">
-        <v>13.103590043788692</v>
+        <v>13.103590029420307</v>
       </c>
       <c r="AU2">
-        <v>8.4655570318748534</v>
+        <v>8.4655570229296337</v>
       </c>
       <c r="AV2">
-        <v>5.4259333730575197</v>
+        <v>5.4259333616926186</v>
       </c>
       <c r="AW2">
-        <v>10.653103980977612</v>
+        <v>10.653103969533669</v>
       </c>
       <c r="AX2">
-        <v>14.980637462353858</v>
+        <v>14.980637448382497</v>
       </c>
       <c r="AY2">
-        <v>12.055342590177839</v>
+        <v>12.05534258061472</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -668,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>4.8985898048375365</v>
+      </c>
+      <c r="C3">
+        <v>10.883207631551338</v>
+      </c>
+      <c r="D3">
+        <v>13.809501987266499</v>
+      </c>
+      <c r="E3">
+        <v>16.927332331484919</v>
+      </c>
+      <c r="F3">
+        <v>1.3325124211368988</v>
+      </c>
+      <c r="G3">
+        <v>10.268513337384489</v>
+      </c>
+      <c r="H3">
+        <v>8.6441905608067504</v>
+      </c>
+      <c r="I3">
+        <v>8.2856320582572511</v>
+      </c>
+      <c r="J3">
+        <v>11.30083685072316</v>
+      </c>
+      <c r="K3">
+        <v>-0.1240081986848327</v>
+      </c>
+      <c r="L3">
+        <v>11.411123254020993</v>
+      </c>
+      <c r="M3">
+        <v>8.5485243779309332</v>
+      </c>
+      <c r="N3">
         <v>-7.2455310004589952</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>4.6464066055564892</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>26.172336310971811</v>
+      </c>
+      <c r="Q3">
+        <v>6.9035371980558518</v>
+      </c>
+      <c r="R3">
+        <v>5.2343485057408117</v>
+      </c>
+      <c r="S3">
+        <v>4.9030876100627427</v>
+      </c>
+      <c r="T3">
+        <v>6.4391133463873196</v>
+      </c>
+      <c r="U3">
+        <v>12.456171806975766</v>
+      </c>
+      <c r="V3">
+        <v>12.674564643014607</v>
+      </c>
+      <c r="W3">
+        <v>6.6718384593070708</v>
+      </c>
+      <c r="X3">
+        <v>4.2833426916846884</v>
+      </c>
+      <c r="Y3">
+        <v>5.7173857438597864</v>
+      </c>
+      <c r="Z3">
+        <v>10.698253584196237</v>
+      </c>
+      <c r="AA3">
+        <v>9.3200391896175923</v>
+      </c>
+      <c r="AB3">
+        <v>7.2640928379646823</v>
+      </c>
+      <c r="AC3">
+        <v>13.579790564935381</v>
+      </c>
+      <c r="AD3">
+        <v>16.643489338351401</v>
+      </c>
+      <c r="AE3">
+        <v>12.818259436638979</v>
+      </c>
+      <c r="AF3">
+        <v>11.781031047268911</v>
+      </c>
+      <c r="AG3">
+        <v>7.6560957604858331</v>
+      </c>
+      <c r="AH3">
+        <v>8.8478320030037771</v>
+      </c>
+      <c r="AI3">
+        <v>10.891164768290666</v>
+      </c>
+      <c r="AJ3">
+        <v>13.172492933332919</v>
+      </c>
+      <c r="AK3">
+        <v>10.237202673359898</v>
+      </c>
+      <c r="AL3">
+        <v>11.7450506977725</v>
+      </c>
+      <c r="AM3">
         <v>12.721568865247699</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>5.0178586006840877</v>
       </c>
-      <c r="F3">
-        <v>1.3325124283239584</v>
-      </c>
-      <c r="G3">
-        <v>10.268513342407321</v>
-      </c>
-      <c r="H3">
-        <v>8.6441905766210478</v>
-      </c>
-      <c r="I3">
-        <v>8.2856320655195876</v>
-      </c>
-      <c r="J3">
-        <v>11.300836861885562</v>
-      </c>
-      <c r="K3">
-        <v>-0.12400819220949007</v>
-      </c>
-      <c r="L3">
-        <v>11.411123261394751</v>
-      </c>
-      <c r="M3">
-        <v>8.5484372600657004</v>
-      </c>
-      <c r="N3">
-        <v>-7.245530990911984</v>
-      </c>
-      <c r="O3">
-        <v>4.6464066173238727</v>
-      </c>
-      <c r="P3">
-        <v>26.172336324693209</v>
-      </c>
-      <c r="Q3">
-        <v>6.9035372095838934</v>
-      </c>
-      <c r="R3">
-        <v>5.2343485256614608</v>
-      </c>
-      <c r="S3">
-        <v>4.9030876173402458</v>
-      </c>
-      <c r="T3">
-        <v>6.4391133538803134</v>
-      </c>
-      <c r="U3">
-        <v>12.456171816359539</v>
-      </c>
-      <c r="V3">
-        <v>12.674564651350945</v>
-      </c>
-      <c r="W3">
-        <v>6.6718384714816645</v>
-      </c>
-      <c r="X3">
-        <v>4.2833427024470749</v>
-      </c>
-      <c r="Y3">
-        <v>5.7173857533858712</v>
-      </c>
-      <c r="Z3">
-        <v>10.698253596168431</v>
-      </c>
-      <c r="AA3">
-        <v>9.3200392021745557</v>
-      </c>
-      <c r="AB3">
-        <v>7.2640928433860417</v>
-      </c>
-      <c r="AC3">
-        <v>13.579790572669657</v>
-      </c>
-      <c r="AD3">
-        <v>16.643489349148684</v>
-      </c>
-      <c r="AE3">
-        <v>12.818259446355967</v>
-      </c>
-      <c r="AF3">
-        <v>11.781031056972351</v>
-      </c>
-      <c r="AG3">
-        <v>7.6560957669527268</v>
-      </c>
-      <c r="AH3">
-        <v>8.8478320125476735</v>
-      </c>
-      <c r="AI3">
-        <v>10.891164771444254</v>
-      </c>
-      <c r="AJ3">
-        <v>13.172492939506563</v>
-      </c>
-      <c r="AK3">
-        <v>10.237202681160525</v>
-      </c>
-      <c r="AL3">
-        <v>11.745050711056065</v>
-      </c>
-      <c r="AM3">
-        <v>12.721568875633288</v>
-      </c>
-      <c r="AN3">
-        <v>5.0178586127359202</v>
-      </c>
       <c r="AO3">
-        <v>4.9374997993894585</v>
+        <v>4.9374997876127571</v>
       </c>
       <c r="AP3">
-        <v>11.126905411820253</v>
+        <v>11.126905403363523</v>
       </c>
       <c r="AQ3">
-        <v>10.127918261759088</v>
+        <v>10.127918245401867</v>
       </c>
       <c r="AR3">
-        <v>12.153359926915746</v>
+        <v>12.153359920016534</v>
       </c>
       <c r="AS3">
-        <v>8.2596189489827747</v>
+        <v>8.2596189379147571</v>
       </c>
       <c r="AT3">
-        <v>9.4829229528688561</v>
+        <v>9.4829229400370245</v>
       </c>
       <c r="AU3">
-        <v>11.447019282730711</v>
+        <v>11.447019276149424</v>
       </c>
       <c r="AV3">
-        <v>9.295793456163798</v>
+        <v>9.2957934460288545</v>
       </c>
       <c r="AW3">
-        <v>11.692785737090619</v>
+        <v>11.692785727750273</v>
       </c>
       <c r="AX3">
-        <v>27.669033538503012</v>
+        <v>27.669033526873012</v>
       </c>
       <c r="AY3">
-        <v>19.123550201516608</v>
+        <v>19.12355018789512</v>
       </c>
     </row>
   </sheetData>
